--- a/LuckySpin/LuckySpinSystem.xlsx
+++ b/LuckySpin/LuckySpinSystem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/LuckySpin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1978F25-3074-4F4F-99A5-248B896B6ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD601B15-78FF-9F43-86F4-3151B133005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
   <si>
     <t>SPin items</t>
   </si>
@@ -353,10 +353,67 @@
     <t>1张</t>
   </si>
   <si>
-    <t>4万能/8特定</t>
-  </si>
-  <si>
     <t xml:space="preserve">钻石 </t>
+  </si>
+  <si>
+    <t>原来他们每天获得 &amp; 消耗 多少金币？</t>
+  </si>
+  <si>
+    <t>你现在要求他们再额外消耗多少金币？</t>
+  </si>
+  <si>
+    <t>这个gap不能太大</t>
+  </si>
+  <si>
+    <t>10万能/8特定</t>
+  </si>
+  <si>
+    <t>决策： 高活跃，小付费，少奖励</t>
+  </si>
+  <si>
+    <t>高活跃，中付费，高奖励</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 免费&amp;小R用户</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -》 中&amp; 大R用户</t>
+  </si>
+  <si>
+    <t>看数据决定选择哪一种模型</t>
+  </si>
+  <si>
+    <t>1.大中小r的分布 &amp; 活跃分布</t>
+  </si>
+  <si>
+    <t>2.价值曲线绘制出来</t>
+  </si>
+  <si>
+    <t>3.luckyreward下大中小R的购买金币分布</t>
+  </si>
+  <si>
+    <t>如果大R很多，那么是不是就可以支撑大R模型了？</t>
+  </si>
+  <si>
+    <t>计算一下假设不同付费层次中有</t>
+  </si>
+  <si>
+    <t>x人会玩这个系统</t>
+  </si>
+  <si>
+    <t>数据：</t>
+  </si>
+  <si>
+    <t>玩家次数的漏斗曲线</t>
+  </si>
+  <si>
+    <t>台球玩家金币每天消耗与获取的GAP</t>
+  </si>
+  <si>
+    <t>台球上线之前玩家的活跃与上线之后玩家的活跃</t>
+  </si>
+  <si>
+    <t>台球不同层级玩家所转次数的分布</t>
   </si>
 </sst>
 </file>
@@ -476,12 +533,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1371,8 +1428,8 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>180438</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -1391,7 +1448,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -1432,12 +1489,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6150</xdr:colOff>
+      <xdr:colOff>6149</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>4383</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Ink 33">
@@ -1456,7 +1513,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Ink 33">
@@ -1497,12 +1554,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1648866</xdr:colOff>
+      <xdr:colOff>1648867</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>66866</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Ink 36">
@@ -1521,7 +1578,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Ink 36">
@@ -1591,19 +1648,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127370</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580153</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>154111</xdr:rowOff>
+      <xdr:rowOff>176198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254028</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>706810</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>71783</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Ink 76">
@@ -1617,12 +1674,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="7968240" y="2340720"/>
+            <a:off x="7592762" y="2362807"/>
             <a:ext cx="2611440" cy="1088280"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Ink 76">
@@ -1667,8 +1724,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>77447</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="87" name="Ink 86">
@@ -1687,7 +1744,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="87" name="Ink 86">
@@ -1732,8 +1789,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>80797</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Ink 93">
@@ -1752,7 +1809,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Ink 93">
@@ -1797,8 +1854,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>154471</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="102" name="Ink 101">
@@ -1817,7 +1874,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="102" name="Ink 101">
@@ -2612,13 +2669,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C35C7-C6FC-2F46-970F-3FAF8E8F73EA}">
   <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
     <col min="3" max="4" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
@@ -2750,14 +2807,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <f>4*B27</f>
-        <v>124</v>
+        <f>10*B27</f>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>105</v>
+      <c r="D4" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2869,7 +2926,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>93</v>
@@ -3211,7 +3268,7 @@
       </c>
       <c r="B12">
         <f>SUM(B4:B11)</f>
-        <v>368</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -3229,16 +3286,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" t="s">
         <v>20</v>
       </c>
@@ -3383,15 +3440,15 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <f>SUM(I19:L19)</f>
         <v>235.38461538461542</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
@@ -3471,7 +3528,7 @@
       </c>
       <c r="N23">
         <f>B12/L23</f>
-        <v>0.97354497354497349</v>
+        <v>1.4656084656084656</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3495,33 +3552,98 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
       <c r="C45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
       <c r="C46" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
         <v>34</v>
@@ -4464,10 +4586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE4735-F306-9246-8E01-EF29E009A6A5}">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView topLeftCell="A16" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4850,9 +4972,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/LuckySpin/LuckySpinSystem.xlsx
+++ b/LuckySpin/LuckySpinSystem.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/LuckySpin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD601B15-78FF-9F43-86F4-3151B133005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD84DC4-1FD7-2B40-801B-A288E83AE240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="思路1" sheetId="1" r:id="rId1"/>
+    <sheet name="思路1数据" sheetId="2" r:id="rId2"/>
+    <sheet name="整理" sheetId="3" r:id="rId3"/>
+    <sheet name="8BALL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="157">
   <si>
     <t>SPin items</t>
   </si>
@@ -414,6 +416,99 @@
   </si>
   <si>
     <t>台球不同层级玩家所转次数的分布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据 &amp; 模型 </t>
+  </si>
+  <si>
+    <t>价值比例</t>
+  </si>
+  <si>
+    <t>水晶球*28</t>
+  </si>
+  <si>
+    <t>瓦吉特*6</t>
+  </si>
+  <si>
+    <t>消耗品*2</t>
+  </si>
+  <si>
+    <t>审判*1</t>
+  </si>
+  <si>
+    <t>钻石*200</t>
+  </si>
+  <si>
+    <t>钻石*20</t>
+  </si>
+  <si>
+    <t>花岗岩*130</t>
+  </si>
+  <si>
+    <t>金币*800</t>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
+    <t>金币*1000</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>触发广告</t>
+  </si>
+  <si>
+    <t>金币*2000</t>
+  </si>
+  <si>
+    <t>金币*4000</t>
+  </si>
+  <si>
+    <t>金币*6000</t>
+  </si>
+  <si>
+    <t>价值体系</t>
+  </si>
+  <si>
+    <t>金币*9000</t>
+  </si>
+  <si>
+    <t>金币*12000</t>
+  </si>
+  <si>
+    <t>金币*16000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>与GOLFRIVAL一致</t>
+  </si>
+  <si>
+    <t>特定紫卡</t>
+  </si>
+  <si>
+    <t>40万能/80特定</t>
+  </si>
+  <si>
+    <t>设计期望次数</t>
+  </si>
+  <si>
+    <t>随机紫卡/随机橙卡</t>
+  </si>
+  <si>
+    <t>钻石 *20</t>
+  </si>
+  <si>
+    <t>20💎</t>
   </si>
 </sst>
 </file>
@@ -456,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +588,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -522,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -539,6 +646,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,7 +761,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$18:$L$18</c:f>
+              <c:f>思路1!$E$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2667,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C35C7-C6FC-2F46-970F-3FAF8E8F73EA}">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3286,16 +3398,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" t="s">
         <v>20</v>
       </c>
@@ -4572,6 +4684,11 @@
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4588,7 +4705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE4735-F306-9246-8E01-EF29E009A6A5}">
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="110" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
@@ -4999,4 +5116,1429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57362D8D-9DE4-3941-8D7C-F497254A6CFE}">
+  <dimension ref="A1:AD38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="39.1640625" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>40*B27</f>
+        <v>1240</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.0489493676683628</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <f>D5*A16</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>400</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>700</v>
+      </c>
+      <c r="I5" s="1">
+        <v>800</v>
+      </c>
+      <c r="J5" s="1">
+        <v>900</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.4062586252690648</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>150</v>
+      </c>
+      <c r="G6" s="1">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>250</v>
+      </c>
+      <c r="I6" s="1">
+        <v>300</v>
+      </c>
+      <c r="J6" s="1">
+        <v>350</v>
+      </c>
+      <c r="K6" s="1">
+        <v>400</v>
+      </c>
+      <c r="L6" s="1">
+        <v>450</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.3868643289317895</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>250</v>
+      </c>
+      <c r="G7" s="1">
+        <v>300</v>
+      </c>
+      <c r="H7" s="1">
+        <v>350</v>
+      </c>
+      <c r="I7" s="1">
+        <v>400</v>
+      </c>
+      <c r="J7" s="1">
+        <v>450</v>
+      </c>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+      <c r="L7" s="1">
+        <v>550</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.65081715690898</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>250</v>
+      </c>
+      <c r="G8" s="1">
+        <v>300</v>
+      </c>
+      <c r="H8" s="1">
+        <v>350</v>
+      </c>
+      <c r="I8" s="1">
+        <v>400</v>
+      </c>
+      <c r="J8" s="1">
+        <v>450</v>
+      </c>
+      <c r="K8" s="1">
+        <v>500</v>
+      </c>
+      <c r="L8" s="1">
+        <v>550</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4.6508171569089667</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <f>300*A16</f>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="1">
+        <v>300</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>600</v>
+      </c>
+      <c r="G9" s="1">
+        <v>700</v>
+      </c>
+      <c r="H9" s="1">
+        <v>800</v>
+      </c>
+      <c r="I9" s="1">
+        <v>900</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.102738103701975</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>250</v>
+      </c>
+      <c r="G10" s="1">
+        <v>300</v>
+      </c>
+      <c r="H10" s="1">
+        <v>350</v>
+      </c>
+      <c r="I10" s="1">
+        <v>400</v>
+      </c>
+      <c r="J10" s="1">
+        <v>450</v>
+      </c>
+      <c r="K10" s="1">
+        <v>500</v>
+      </c>
+      <c r="L10" s="1">
+        <v>550</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.6508171569089471</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <f>500*A16</f>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>600</v>
+      </c>
+      <c r="G11" s="1">
+        <v>700</v>
+      </c>
+      <c r="H11" s="1">
+        <v>800</v>
+      </c>
+      <c r="I11" s="1">
+        <v>900</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.102738103701943</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B4:B11)</f>
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>60/1000</f>
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>60/(1000*1.3)</f>
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>400</v>
+      </c>
+      <c r="H18">
+        <v>600</v>
+      </c>
+      <c r="I18">
+        <v>600</v>
+      </c>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+      <c r="K18">
+        <v>1500</v>
+      </c>
+      <c r="L18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <f>E18*$A$18</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:L19" si="0">F18*$A$18</f>
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18.461538461538463</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>69.230769230769241</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <f>SUM($E$19:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>SUM($E$19:F19)</f>
+        <v>9.2307692307692317</v>
+      </c>
+      <c r="G20">
+        <f>SUM($E$19:G19)</f>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="H20">
+        <f>SUM($E$19:H19)</f>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="I20">
+        <f>SUM($E$19:I19)</f>
+        <v>83.07692307692308</v>
+      </c>
+      <c r="J20">
+        <f>SUM($E$19:J19)</f>
+        <v>129.23076923076923</v>
+      </c>
+      <c r="K20">
+        <f>SUM($E$19:K19)</f>
+        <v>198.46153846153845</v>
+      </c>
+      <c r="L20">
+        <f>SUM($E$19:L19)</f>
+        <v>290.76923076923077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="12">
+        <f>SUM(I19:L19)</f>
+        <v>235.38461538461542</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <f>E18*$A$16</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:L22" si="1">F18*$A$16</f>
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23">
+        <f>SUM($E$22:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM($E$22:F22)</f>
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <f>SUM($E$22:G22)</f>
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <f>SUM($E$22:H22)</f>
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <f>SUM($E$22:I22)</f>
+        <v>108</v>
+      </c>
+      <c r="J23">
+        <f>SUM($E$22:J22)</f>
+        <v>168</v>
+      </c>
+      <c r="K23">
+        <f>SUM($E$22:K22)</f>
+        <v>258</v>
+      </c>
+      <c r="L23">
+        <f>SUM($E$22:L22)</f>
+        <v>378</v>
+      </c>
+      <c r="O23">
+        <f>B12/L23</f>
+        <v>3.925925925925926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27">
+        <f>2790/90</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <f>1440/90</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f>(E4/(SUM(E$4:E$11))*$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:L29" si="2">(F4/(SUM(F$4:F$11))*$B4)</f>
+        <v>2.3800383877159308</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>3.987138263665595</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>5.1452282157676352</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>6.0194174757281544</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>8.0345572354211665</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>9.6498054474708166</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>10.973451327433628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" ref="E30:L36" si="3">(E5/(SUM(E$4:E$11))*$B5)</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>1.1516314779270633</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1.157556270096463</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1.1618257261410789</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1.1650485436893203</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>1.1663066954643628</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1.1673151750972763</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>1.168141592920354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>1.727447216890595</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>1.9292604501607715</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>2.0746887966804981</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2.1844660194174756</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>2.2678185745140391</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>2.3346303501945527</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>2.3893805309734515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>4.7984644913627639</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>4.823151125401929</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>4.8409405255878291</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>4.8543689320388346</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>4.8596112311015123</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>4.8638132295719849</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>4.8672566371681416</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>5.7142857142857135</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>5.7581573896353166</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>5.787781350482315</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>5.809128630705394</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>5.825242718446602</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>5.8315334773218144</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>5.836575875486381</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>5.8407079646017701</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>4.1458733205374285</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>4.051446945337621</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>3.9834024896265561</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>3.9320388349514559</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>3.8876889848812093</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>3.8521400778210113</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>3.8230088495575218</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>4.7984644913627639</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>4.823151125401929</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>4.8409405255878291</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>4.8543689320388346</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>4.8596112311015123</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>4.8638132295719849</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>4.8672566371681416</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>6.90978886756238</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>6.752411575562701</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>6.6390041493775929</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>6.5533980582524265</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>6.4794816414686824</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>6.4202334630350189</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>6.3716814159292037</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f>SUM(E29:E36)</f>
+        <v>29.238095238095237</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:L38" si="4">SUM(F29:F36)</f>
+        <v>31.669865642994242</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>33.311897106109328</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>34.49515905947441</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>35.388349514563103</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>37.386609071274293</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>38.988326848249031</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>40.30088495575221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E16:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A634A7-831D-7840-8E63-AE9E936DC34A}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LuckySpin/LuckySpinSystem.xlsx
+++ b/LuckySpin/LuckySpinSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/LuckySpin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688CEF34-7277-E248-91DB-171CB873115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6872AA-09C4-4A45-8B1D-F2606C1D3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17620" activeTab="5" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="7" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
   </bookViews>
   <sheets>
     <sheet name="思路1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
   <si>
     <t>SPin items</t>
   </si>
@@ -599,6 +599,15 @@
   <si>
     <t>金币*350</t>
   </si>
+  <si>
+    <t>Legen chip[蝙蝠，凤凰，鲸鱼，红雀，孔雀，独角兽, 蝎子（S12 ) ]</t>
+  </si>
+  <si>
+    <t>Legen chip [蝙蝠,红雀,凤凰（s10 )]</t>
+  </si>
+  <si>
+    <t>Legen chip【全】</t>
+  </si>
 </sst>
 </file>
 
@@ -762,14 +771,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12057,16 +12066,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" t="s">
         <v>20</v>
       </c>
@@ -13782,14 +13791,14 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
@@ -13955,9 +13964,9 @@
         <v>1860</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="26">
+        <v>186</v>
+      </c>
+      <c r="D4" s="24">
         <v>60</v>
       </c>
       <c r="E4" s="1">
@@ -14483,16 +14492,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="21"/>
       <c r="N16" t="s">
         <v>20</v>
@@ -15208,14 +15217,14 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
@@ -15381,9 +15390,9 @@
         <v>2480</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="26">
+        <v>185</v>
+      </c>
+      <c r="D4" s="24">
         <v>80</v>
       </c>
       <c r="E4" s="1">
@@ -15909,16 +15918,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="13"/>
       <c r="N16" t="s">
         <v>20</v>
@@ -16634,7 +16643,7 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16809,9 +16818,9 @@
         <v>3100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="26">
+        <v>187</v>
+      </c>
+      <c r="D4" s="24">
         <v>100</v>
       </c>
       <c r="E4" s="1">
@@ -17338,16 +17347,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="21"/>
       <c r="N16" t="s">
         <v>20</v>
@@ -17880,8 +17889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2E5D36-ACCA-3B46-A3E7-54B676AC09D2}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18056,9 +18065,9 @@
         <v>3720</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="26">
+        <v>187</v>
+      </c>
+      <c r="D4" s="24">
         <v>120</v>
       </c>
       <c r="E4" s="1">
@@ -18585,16 +18594,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="16"/>
       <c r="N16" t="s">
         <v>20</v>
@@ -19113,7 +19122,7 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:L16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19287,7 +19296,7 @@
         <v>4340</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>182</v>
@@ -19813,16 +19822,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="16"/>
       <c r="N16" t="s">
         <v>20</v>
@@ -20277,8 +20286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F889D7A4-B1E1-314E-84EA-99BE3BEA80D2}">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20452,7 +20461,7 @@
         <v>4960</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>183</v>
@@ -20978,16 +20987,16 @@
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="18"/>
       <c r="N16" t="s">
         <v>20</v>
@@ -21695,10 +21704,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D43" s="25">
+      <c r="D43" s="23">
         <v>0.2</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="23">
         <v>0.8</v>
       </c>
       <c r="F43" t="s">

--- a/LuckySpin/LuckySpinSystem.xlsx
+++ b/LuckySpin/LuckySpinSystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/LuckySpin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6872AA-09C4-4A45-8B1D-F2606C1D3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F10414-9890-5C43-A868-51DA66431FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="7" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="192">
   <si>
     <t>SPin items</t>
   </si>
@@ -607,6 +607,18 @@
   </si>
   <si>
     <t>Legen chip【全】</t>
+  </si>
+  <si>
+    <t>随机紫卡*3/随机橙卡*30</t>
+  </si>
+  <si>
+    <t>特定紫卡</t>
+  </si>
+  <si>
+    <t>金币*750</t>
+  </si>
+  <si>
+    <t>随机紫卡*6/随机橙卡*60</t>
   </si>
 </sst>
 </file>
@@ -13791,7 +13803,7 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14209,7 +14221,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -14266,7 +14278,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>172</v>
@@ -14390,7 +14402,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1">
         <v>180</v>
@@ -14448,7 +14460,7 @@
       </c>
       <c r="B12">
         <f>SUM(B4:B11)</f>
-        <v>2592.5</v>
+        <v>2562.5</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -14755,7 +14767,7 @@
       </c>
       <c r="O23">
         <f>B12/L24</f>
-        <v>1.4028679653679654</v>
+        <v>1.3866341991341991</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -17890,7 +17902,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18126,7 +18138,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1">
         <f>1000*D4/160</f>
@@ -18492,7 +18504,7 @@
         <v>360</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D11" s="1">
         <v>360</v>
@@ -19122,7 +19134,7 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19357,7 +19369,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1">
         <v>800</v>
@@ -20287,7 +20299,7 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LuckySpin/LuckySpinSystem.xlsx
+++ b/LuckySpin/LuckySpinSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/LuckySpin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F10414-9890-5C43-A868-51DA66431FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B8D8E-F6A2-6A4B-8CC5-880DC2B41A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="7" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="7" xr2:uid="{CB3C4474-0FCA-FB4A-8237-8B08E4EA6766}"/>
   </bookViews>
   <sheets>
     <sheet name="思路1" sheetId="1" r:id="rId1"/>
@@ -13385,7 +13385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE4735-F306-9246-8E01-EF29E009A6A5}">
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
@@ -13803,7 +13803,7 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13994,16 +13994,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>8</v>
@@ -14095,7 +14095,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>172</v>
@@ -14278,7 +14278,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>172</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="B12">
         <f>SUM(B4:B11)</f>
-        <v>2562.5</v>
+        <v>2457.5</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="O23">
         <f>B12/L24</f>
-        <v>1.3866341991341991</v>
+        <v>1.3298160173160174</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -15229,7 +15229,7 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15420,16 +15420,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>8</v>
@@ -16655,7 +16655,7 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16848,16 +16848,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>8</v>
@@ -17902,7 +17902,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18095,16 +18095,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>8</v>
@@ -19134,7 +19134,7 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19326,16 +19326,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>8</v>
@@ -20299,7 +20299,7 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20491,22 +20491,22 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>8</v>
       </c>
       <c r="N4" s="1">
-        <v>7.6262456072751128</v>
+        <v>7.6231148570122125</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -20567,7 +20567,7 @@
         <v>158</v>
       </c>
       <c r="N5" s="1">
-        <v>2.3516297812020013</v>
+        <v>2.0621191144768893</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -20597,13 +20597,13 @@
         <v>172</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
@@ -20627,7 +20627,7 @@
         <v>160</v>
       </c>
       <c r="N6" s="1">
-        <v>2.8725199100805261</v>
+        <v>3.8443276641400019</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -20688,7 +20688,7 @@
         <v>161</v>
       </c>
       <c r="N7" s="1">
-        <v>3.2313797080434483</v>
+        <v>3.0056793760519076</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -20749,7 +20749,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="1">
-        <v>5.8296883159372541</v>
+        <v>5.7812458042120518</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -20809,7 +20809,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="1">
-        <v>6.9769298401768278</v>
+        <v>6.9819247376871321</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -20870,7 +20870,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>4.5265337898214995</v>
+        <v>4.4050044319551507</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -20930,7 +20930,7 @@
         <v>159</v>
       </c>
       <c r="N11" s="1">
-        <v>2.5850730474633408</v>
+        <v>2.2965840144646767</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -21470,6 +21470,7 @@
     <mergeCell ref="E16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
